--- a/URS/DbLayouts/L2-業務作業/ClMovables.xlsx
+++ b/URS/DbLayouts/L2-業務作業/ClMovables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20952" windowHeight="7812"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="144">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -339,10 +339,6 @@
     <t>decimald</t>
   </si>
   <si>
-    <t>擔保品動產檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DECIMAL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -368,26 +364,6 @@
   </si>
   <si>
     <t>ClCode1,ClCode2,ClNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OwnerId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OwnerName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有權人統編</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有權人姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -557,10 +533,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ClMovables</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>KeyID</t>
   </si>
   <si>
@@ -648,10 +620,6 @@
 3:抵押權確定</t>
   </si>
   <si>
-    <t>ProductBrand = ,AND ProductSpec = ,AND OwnerId =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>findUnique1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -693,6 +661,29 @@
   </si>
   <si>
     <t>NVARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保品動產檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶識別碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerCustUKey</t>
+  </si>
+  <si>
+    <t>OwnerCustUKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductBrand = ,AND ProductSpec = ,AND OwnerCustUKey =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClMovables</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1231,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1254,10 +1245,10 @@
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="8" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1267,7 +1258,7 @@
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>31</v>
@@ -1282,7 +1273,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -1295,10 +1286,10 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>88</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>89</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -1335,7 +1326,9 @@
         <v>36</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>140</v>
+      </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -1375,18 +1368,19 @@
         <v>38</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="18">
         <v>1</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
+        <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -1396,18 +1390,19 @@
         <v>39</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="18">
         <v>2</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
+        <f t="shared" ref="A11:A50" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1417,7 +1412,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="18">
         <v>7</v>
@@ -1427,127 +1422,134 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="18">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="E13" s="18">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E14" s="18">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>3</v>
@@ -1560,70 +1562,76 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="18">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="18">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="G21" s="18" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>3</v>
@@ -1633,77 +1641,81 @@
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E23" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F23" s="18"/>
-      <c r="G23" s="18" t="s">
-        <v>128</v>
-      </c>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="E24" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E25" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="G25" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="405" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>3</v>
@@ -1713,39 +1725,41 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="405" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>3</v>
@@ -1755,123 +1769,129 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E29" s="18">
-        <v>3</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F29" s="18">
+        <v>5</v>
+      </c>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="18">
-        <v>8</v>
-      </c>
-      <c r="F30" s="18">
+      <c r="E31" s="18">
         <v>5</v>
       </c>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
-        <v>23</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="18">
-        <v>1</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18" t="s">
-        <v>23</v>
-      </c>
+      <c r="F31" s="18">
+        <v>2</v>
+      </c>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="18">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F32" s="18">
         <v>2</v>
       </c>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E33" s="18">
-        <v>16</v>
-      </c>
-      <c r="F33" s="18">
-        <v>2</v>
-      </c>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>3</v>
@@ -1881,18 +1901,19 @@
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>3</v>
@@ -1907,13 +1928,14 @@
     </row>
     <row r="36" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>3</v>
@@ -1928,13 +1950,14 @@
     </row>
     <row r="37" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>101</v>
+      <c r="B37" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>3</v>
@@ -1944,18 +1967,19 @@
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>3</v>
@@ -1965,82 +1989,84 @@
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>119</v>
+      <c r="B39" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E39" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F39" s="18"/>
-      <c r="G39" s="18" t="s">
-        <v>133</v>
-      </c>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="E40" s="18">
-        <v>8</v>
-      </c>
-      <c r="F40" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="F40" s="18">
+        <v>2</v>
+      </c>
       <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="E41" s="18">
-        <v>16</v>
-      </c>
-      <c r="F41" s="18">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F41" s="18"/>
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E42" s="18">
         <v>20</v>
@@ -2050,32 +2076,34 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="E43" s="18">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>81</v>
@@ -2088,13 +2116,14 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>81</v>
@@ -2107,113 +2136,99 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E46" s="18">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="18">
-        <v>120</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="E48" s="18">
+        <v>6</v>
+      </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="18">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="E50" s="18">
+        <v>6</v>
+      </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="18">
-        <v>43</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="18">
-        <v>6</v>
-      </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2237,7 +2252,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2272,47 +2287,47 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
